--- a/sormas-base/doc/SormasDictionary.xlsx
+++ b/sormas-base/doc/SormasDictionary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="723">
   <si>
     <t>Field</t>
   </si>
@@ -50,6 +50,45 @@
     <t>Outbreaks</t>
   </si>
   <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Enter the first name of the person</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Enter the last name of the person</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>mothersMaidenName</t>
+  </si>
+  <si>
+    <t>Mother's maiden name</t>
+  </si>
+  <si>
     <t>sex</t>
   </si>
   <si>
@@ -62,28 +101,34 @@
     <t>Select the sex of the person</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Enter the first name of the person</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>Enter the last name of the person</t>
+    <t>birthdateDD</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>birthdateMM</t>
+  </si>
+  <si>
+    <t>birthdateYYYY</t>
+  </si>
+  <si>
+    <t>approximateAge</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Enter the age of the person</t>
+  </si>
+  <si>
+    <t>approximateAgeType</t>
+  </si>
+  <si>
+    <t>YEARS, MONTHS</t>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
   <si>
     <t>presentCondition</t>
@@ -98,39 +143,6 @@
     <t>Select the person's current health condition</t>
   </si>
   <si>
-    <t>birthdateDD</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>birthdateMM</t>
-  </si>
-  <si>
-    <t>birthdateYYYY</t>
-  </si>
-  <si>
-    <t>approximateAge</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Enter the age of the person</t>
-  </si>
-  <si>
-    <t>approximateAgeType</t>
-  </si>
-  <si>
-    <t>YEARS, MONTHS</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>deathDate</t>
   </si>
   <si>
@@ -206,18 +218,6 @@
     <t>Burial conductor</t>
   </si>
   <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>Nickname</t>
-  </si>
-  <si>
-    <t>mothersMaidenName</t>
-  </si>
-  <si>
-    <t>Mother's maiden name</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -299,6 +299,24 @@
     <t>Health facility name &amp; description</t>
   </si>
   <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>LGA</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
     <t>Address or landmark</t>
   </si>
   <si>
@@ -314,24 +332,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>LGA</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>Ward</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -359,6 +359,66 @@
     <t>If you draw a circle centered at this location's latitude and longitude, and with a radius equal to the accuracy, then there is a 68% probability that the true location is inside the circle</t>
   </si>
   <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Select the disease in question</t>
+  </si>
+  <si>
+    <t>diseaseDetails</t>
+  </si>
+  <si>
+    <t>Disease name</t>
+  </si>
+  <si>
+    <t>plagueType</t>
+  </si>
+  <si>
+    <t>BUBONIC, PNEUMONIC, SEPTICAEMIC</t>
+  </si>
+  <si>
+    <t>Plague type</t>
+  </si>
+  <si>
+    <t>Plague</t>
+  </si>
+  <si>
+    <t>dengueFeverType</t>
+  </si>
+  <si>
+    <t>DENGUE_FEVER, DENGUE_HEMORRHAGIC_FEVER, DENUGE_SHOCK_SYNDROME</t>
+  </si>
+  <si>
+    <t>Dengue fever type</t>
+  </si>
+  <si>
+    <t>Dengue</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>PersonReference</t>
+  </si>
+  <si>
+    <t>Case person</t>
+  </si>
+  <si>
+    <t>epidNumber</t>
+  </si>
+  <si>
+    <t>EPID number</t>
+  </si>
+  <si>
+    <t>reportDate</t>
+  </si>
+  <si>
+    <t>Date of report</t>
+  </si>
+  <si>
     <t>reportingUser</t>
   </si>
   <si>
@@ -368,19 +428,13 @@
     <t>Reporting user</t>
   </si>
   <si>
-    <t>reportDate</t>
-  </si>
-  <si>
-    <t>Date of report</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>PersonReference</t>
-  </si>
-  <si>
-    <t>Case person</t>
+    <t>receptionDate</t>
+  </si>
+  <si>
+    <t>Date of reception</t>
+  </si>
+  <si>
+    <t>Date the case information was received at the state or national level</t>
   </si>
   <si>
     <t>caseClassification</t>
@@ -410,45 +464,6 @@
     <t>classificationComment</t>
   </si>
   <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>Disease</t>
-  </si>
-  <si>
-    <t>Select the disease in question</t>
-  </si>
-  <si>
-    <t>diseaseDetails</t>
-  </si>
-  <si>
-    <t>Disease name</t>
-  </si>
-  <si>
-    <t>plagueType</t>
-  </si>
-  <si>
-    <t>BUBONIC, PNEUMONIC, SEPTICAEMIC</t>
-  </si>
-  <si>
-    <t>Plague type</t>
-  </si>
-  <si>
-    <t>Plague</t>
-  </si>
-  <si>
-    <t>dengueFeverType</t>
-  </si>
-  <si>
-    <t>DENGUE_FEVER, DENGUE_HEMORRHAGIC_FEVER, DENUGE_SHOCK_SYNDROME</t>
-  </si>
-  <si>
-    <t>Dengue fever type</t>
-  </si>
-  <si>
-    <t>Dengue</t>
-  </si>
-  <si>
     <t>investigationStatus</t>
   </si>
   <si>
@@ -464,13 +479,118 @@
     <t>Date of investigation</t>
   </si>
   <si>
-    <t>receptionDate</t>
-  </si>
-  <si>
-    <t>Date of reception</t>
-  </si>
-  <si>
-    <t>Date the case information was received at the state or national level</t>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>NO_OUTCOME, DECEASED, RECOVERED, UNKNOWN</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>outcomeDate</t>
+  </si>
+  <si>
+    <t>Date of outcome</t>
+  </si>
+  <si>
+    <t>healthFacility</t>
+  </si>
+  <si>
+    <t>Health facility</t>
+  </si>
+  <si>
+    <t>Provide the name of the health facility the patient was admitted</t>
+  </si>
+  <si>
+    <t>healthFacilityDetails</t>
+  </si>
+  <si>
+    <t>pregnant</t>
+  </si>
+  <si>
+    <t>YES, NO, UNKNOWN</t>
+  </si>
+  <si>
+    <t>Pregnancy</t>
+  </si>
+  <si>
+    <t>Is the person currently pregnant?</t>
+  </si>
+  <si>
+    <t>vaccination</t>
+  </si>
+  <si>
+    <t>VACCINATED, UNVACCINATED, UNKNOWN</t>
+  </si>
+  <si>
+    <t>Vaccination status for this disease</t>
+  </si>
+  <si>
+    <t>Measles, Yellow fever, CSM, Other</t>
+  </si>
+  <si>
+    <t>vaccinationDoses</t>
+  </si>
+  <si>
+    <t>Number of valid doses</t>
+  </si>
+  <si>
+    <t>Measles, CSM, Other</t>
+  </si>
+  <si>
+    <t>vaccinationDate</t>
+  </si>
+  <si>
+    <t>Date of last vaccination</t>
+  </si>
+  <si>
+    <t>Measles, Yellow fever, CSM, Monkeypox, Other</t>
+  </si>
+  <si>
+    <t>vaccinationInfoSource</t>
+  </si>
+  <si>
+    <t>VACCINATION_CARD, ORAL_COMMUNICATION</t>
+  </si>
+  <si>
+    <t>Source of vaccination information</t>
+  </si>
+  <si>
+    <t>smallpoxVaccinationScar</t>
+  </si>
+  <si>
+    <t>Is a Smallpox vaccination scar present?</t>
+  </si>
+  <si>
+    <t>Monkeypox</t>
+  </si>
+  <si>
+    <t>smallpoxVaccinationReceived</t>
+  </si>
+  <si>
+    <t>Was a Smallpox vaccination received in the past?</t>
+  </si>
+  <si>
+    <t>surveillanceOfficer</t>
+  </si>
+  <si>
+    <t>Responsible surveillance officer</t>
+  </si>
+  <si>
+    <t>caseOfficer</t>
+  </si>
+  <si>
+    <t>Case officer</t>
+  </si>
+  <si>
+    <t>reportLat</t>
+  </si>
+  <si>
+    <t>reportLon</t>
+  </si>
+  <si>
+    <t>reportLatLonAccuracy</t>
   </si>
   <si>
     <t>hospitalization</t>
@@ -479,6 +599,12 @@
     <t>Hospitalization</t>
   </si>
   <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>Symptoms</t>
+  </si>
+  <si>
     <t>epiData</t>
   </si>
   <si>
@@ -488,130 +614,10 @@
     <t>Epidemiological data</t>
   </si>
   <si>
-    <t>healthFacility</t>
-  </si>
-  <si>
-    <t>Health facility</t>
-  </si>
-  <si>
-    <t>Provide the name of the health facility the patient was admitted</t>
-  </si>
-  <si>
-    <t>healthFacilityDetails</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>Symptoms</t>
-  </si>
-  <si>
-    <t>pregnant</t>
-  </si>
-  <si>
-    <t>YES, NO, UNKNOWN</t>
-  </si>
-  <si>
-    <t>Pregnancy</t>
-  </si>
-  <si>
-    <t>Is the person currently pregnant?</t>
-  </si>
-  <si>
-    <t>vaccination</t>
-  </si>
-  <si>
-    <t>VACCINATED, UNVACCINATED, UNKNOWN</t>
-  </si>
-  <si>
-    <t>Vaccination status for this disease</t>
-  </si>
-  <si>
-    <t>Measles, Yellow fever, CSM, Other</t>
-  </si>
-  <si>
-    <t>vaccinationDoses</t>
-  </si>
-  <si>
-    <t>Number of valid doses</t>
-  </si>
-  <si>
-    <t>Measles, CSM, Other</t>
-  </si>
-  <si>
-    <t>vaccinationDate</t>
-  </si>
-  <si>
-    <t>Date of last vaccination</t>
-  </si>
-  <si>
-    <t>Measles, Yellow fever, CSM, Monkeypox, Other</t>
-  </si>
-  <si>
-    <t>vaccinationInfoSource</t>
-  </si>
-  <si>
-    <t>VACCINATION_CARD, ORAL_COMMUNICATION</t>
-  </si>
-  <si>
-    <t>Source of vaccination information</t>
-  </si>
-  <si>
-    <t>smallpoxVaccinationScar</t>
-  </si>
-  <si>
-    <t>Is a Smallpox vaccination scar present?</t>
-  </si>
-  <si>
-    <t>Monkeypox</t>
-  </si>
-  <si>
-    <t>smallpoxVaccinationReceived</t>
-  </si>
-  <si>
-    <t>Was a Smallpox vaccination received in the past?</t>
-  </si>
-  <si>
-    <t>epidNumber</t>
-  </si>
-  <si>
-    <t>EPID number</t>
-  </si>
-  <si>
-    <t>surveillanceOfficer</t>
-  </si>
-  <si>
-    <t>Responsible surveillance officer</t>
-  </si>
-  <si>
-    <t>caseOfficer</t>
-  </si>
-  <si>
-    <t>Case officer</t>
-  </si>
-  <si>
-    <t>reportLat</t>
-  </si>
-  <si>
-    <t>reportLon</t>
-  </si>
-  <si>
-    <t>reportLatLonAccuracy</t>
-  </si>
-  <si>
-    <t>outcome</t>
-  </si>
-  <si>
-    <t>NO_OUTCOME, DECEASED, RECOVERED, UNKNOWN</t>
-  </si>
-  <si>
-    <t>Outcome</t>
-  </si>
-  <si>
-    <t>outcomeDate</t>
-  </si>
-  <si>
-    <t>Date of outcome</t>
+    <t>admittedToHealthFacility</t>
+  </si>
+  <si>
+    <t>Was patient admitted at the health facility?</t>
   </si>
   <si>
     <t>admissionDate</t>
@@ -650,12 +656,6 @@
     <t>Was the patient hospitalized or did he/she visit a health clinic previously for this illness?</t>
   </si>
   <si>
-    <t>admittedToHealthFacility</t>
-  </si>
-  <si>
-    <t>Was patient admitted at the health facility?</t>
-  </si>
-  <si>
     <t>previousHospitalizations</t>
   </si>
   <si>
@@ -1733,6 +1733,9 @@
     <t>Follow-up status</t>
   </si>
   <si>
+    <t>Under follow-up: The follow-up process is running. Follow-up completed: The follow-up has been completed. Follow-up canceled: The follow-up process has been canceled, e.g. because the person died or the contact became irrelevant. Lost to follow-up: The follow-up process could not be continued because the person was not available. No follow-up: No contact follow-up is being done.</t>
+  </si>
+  <si>
     <t>EVD, Lassa, Cholera, Monkeypox, Plague, Other</t>
   </si>
   <si>
@@ -2127,15 +2130,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Community</t>
   </si>
   <si>
     <t>Latitude</t>
@@ -2297,7 +2291,9 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
@@ -2310,13 +2306,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -2330,60 +2326,54 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E4"/>
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
+      <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
+      <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
@@ -2395,16 +2385,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
@@ -2416,16 +2406,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
@@ -2437,16 +2427,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
@@ -2458,16 +2448,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
@@ -2479,54 +2469,58 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11"/>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12"/>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
@@ -2536,16 +2530,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
@@ -2555,58 +2549,58 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G17"/>
     </row>
@@ -2615,17 +2609,17 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G18"/>
     </row>
@@ -2634,55 +2628,55 @@
         <v>56</v>
       </c>
       <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G21"/>
     </row>
@@ -2691,7 +2685,7 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
@@ -2710,13 +2704,13 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
@@ -2735,7 +2729,7 @@
         <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
@@ -2754,7 +2748,7 @@
         <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
@@ -2767,13 +2761,13 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
@@ -2792,7 +2786,7 @@
         <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
@@ -2811,7 +2805,7 @@
         <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
@@ -2830,7 +2824,7 @@
         <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
@@ -2849,7 +2843,7 @@
         <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
@@ -2862,13 +2856,13 @@
         <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
@@ -2923,16 +2917,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -2944,16 +2938,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -2965,16 +2959,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
@@ -2984,16 +2978,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3005,16 +2999,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -3026,16 +3020,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
@@ -3045,16 +3039,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3066,16 +3060,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3087,16 +3081,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3108,16 +3102,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B11" t="s">
         <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
@@ -3127,16 +3121,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B12" t="s">
         <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D12" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
@@ -3191,16 +3185,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -3218,10 +3212,10 @@
         <v>549</v>
       </c>
       <c r="C3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
@@ -3231,16 +3225,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
@@ -3250,16 +3244,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
@@ -3269,16 +3263,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -3290,16 +3284,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
@@ -3309,16 +3303,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3330,16 +3324,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
@@ -3349,16 +3343,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C10" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
@@ -3368,16 +3362,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
@@ -3387,16 +3381,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
@@ -3406,16 +3400,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
@@ -3425,16 +3419,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
@@ -3444,16 +3438,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3465,16 +3459,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
@@ -3484,16 +3478,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
@@ -3503,16 +3497,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
@@ -3522,16 +3516,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
@@ -3586,16 +3580,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
@@ -3605,16 +3599,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>700</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
@@ -3624,16 +3618,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>701</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
@@ -3643,16 +3637,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>702</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
@@ -3662,16 +3656,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
@@ -3684,13 +3678,13 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
@@ -3703,13 +3697,13 @@
         <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
@@ -3719,16 +3713,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
@@ -3738,16 +3732,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B10" t="s">
         <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
@@ -3802,16 +3796,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B2" t="s">
         <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
@@ -3821,16 +3815,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
@@ -3840,16 +3834,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
@@ -3859,16 +3853,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
@@ -3878,16 +3872,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
@@ -3900,13 +3894,13 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
@@ -3922,10 +3916,10 @@
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
@@ -3935,14 +3929,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
@@ -3952,16 +3946,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
@@ -3971,16 +3965,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
@@ -3990,16 +3984,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
@@ -4009,16 +4003,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
@@ -4028,16 +4022,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
@@ -4092,16 +4086,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
@@ -4111,16 +4105,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
@@ -4130,16 +4124,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
@@ -4149,16 +4143,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
@@ -4213,16 +4207,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
@@ -4232,16 +4226,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
@@ -4251,16 +4245,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
@@ -4270,16 +4264,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
@@ -4289,16 +4283,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>700</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
@@ -4353,16 +4347,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
@@ -4372,16 +4366,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>701</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
@@ -4436,16 +4430,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
@@ -4455,16 +4449,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
@@ -4474,16 +4468,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
@@ -4493,16 +4487,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
@@ -4515,13 +4509,13 @@
         <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
@@ -4534,13 +4528,13 @@
         <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
@@ -4553,7 +4547,7 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
@@ -4572,7 +4566,7 @@
         <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>105</v>
@@ -4591,7 +4585,7 @@
         <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -4655,13 +4649,13 @@
         <v>110</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4678,17 +4672,15 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="s">
         <v>11</v>
       </c>
@@ -4707,34 +4699,32 @@
         <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E4"/>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4"/>
+        <v>118</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -4742,37 +4732,37 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6"/>
+        <v>17</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
+      <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
@@ -4784,18 +4774,20 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8"/>
+        <v>17</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
@@ -4805,16 +4797,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4828,16 +4820,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
@@ -4849,20 +4841,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11"/>
+        <v>139</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4870,20 +4864,20 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -4891,20 +4885,18 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E13"/>
       <c r="F13" t="s">
         <v>11</v>
       </c>
@@ -4914,16 +4906,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
@@ -4938,15 +4930,17 @@
         <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15"/>
+        <v>17</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
@@ -4959,19 +4953,21 @@
         <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16"/>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4984,30 +4980,30 @@
         <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17"/>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E18"/>
       <c r="F18" t="s">
         <v>11</v>
       </c>
@@ -5017,16 +5013,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -5040,18 +5036,20 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20"/>
+        <v>17</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
@@ -5061,20 +5059,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E21"/>
       <c r="F21" t="s">
         <v>11</v>
       </c>
@@ -5084,18 +5080,20 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
         <v>156</v>
       </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>89</v>
-      </c>
       <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22"/>
+        <v>157</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
@@ -5105,22 +5103,24 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23"/>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -5152,7 +5152,7 @@
         <v>165</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
@@ -5167,13 +5167,13 @@
         <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>168</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
@@ -5188,13 +5188,13 @@
         <v>170</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>171</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
@@ -5215,7 +5215,7 @@
         <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
@@ -5234,7 +5234,7 @@
         <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
@@ -5253,7 +5253,7 @@
         <v>180</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
@@ -5266,13 +5266,13 @@
         <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
         <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
@@ -5287,34 +5287,32 @@
         <v>183</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
         <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
+      <c r="G32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>185</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
@@ -5324,16 +5322,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
@@ -5343,16 +5341,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
@@ -5362,16 +5360,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" t="s">
         <v>189</v>
       </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
@@ -5387,39 +5385,35 @@
         <v>191</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
+      <c r="G37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" t="s">
         <v>193</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
       </c>
       <c r="C38" t="s">
         <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
+      <c r="G38"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5471,13 +5465,13 @@
         <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
@@ -5489,16 +5483,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>198</v>
       </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>199</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
@@ -5511,13 +5505,13 @@
         <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
@@ -5527,16 +5521,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
         <v>203</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>204</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
@@ -5549,13 +5543,13 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
@@ -5574,7 +5568,7 @@
         <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
@@ -5591,7 +5585,7 @@
         <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
@@ -5668,7 +5662,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>216</v>
@@ -5689,7 +5683,7 @@
         <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>219</v>
@@ -5708,7 +5702,7 @@
         <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>222</v>
@@ -5777,7 +5771,7 @@
         <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
@@ -5819,7 +5813,7 @@
         <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
@@ -5857,7 +5851,7 @@
         <v>246</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
@@ -5876,7 +5870,7 @@
         <v>248</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
@@ -5897,7 +5891,7 @@
         <v>251</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
@@ -5918,7 +5912,7 @@
         <v>254</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
@@ -5937,7 +5931,7 @@
         <v>257</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
@@ -6019,7 +6013,7 @@
         <v>270</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
@@ -6038,7 +6032,7 @@
         <v>273</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
@@ -6057,7 +6051,7 @@
         <v>276</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
@@ -6076,7 +6070,7 @@
         <v>278</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
@@ -6095,7 +6089,7 @@
         <v>281</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
@@ -6114,7 +6108,7 @@
         <v>284</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
@@ -6133,7 +6127,7 @@
         <v>286</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
@@ -6152,7 +6146,7 @@
         <v>289</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
@@ -6171,7 +6165,7 @@
         <v>291</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
@@ -6192,7 +6186,7 @@
         <v>294</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
@@ -6211,7 +6205,7 @@
         <v>296</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
@@ -6230,7 +6224,7 @@
         <v>298</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
@@ -6249,7 +6243,7 @@
         <v>300</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
@@ -6262,7 +6256,7 @@
         <v>301</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>302</v>
@@ -6308,7 +6302,7 @@
         <v>309</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
@@ -6350,7 +6344,7 @@
         <v>314</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
@@ -6369,7 +6363,7 @@
         <v>317</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
@@ -6428,7 +6422,7 @@
         <v>328</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
@@ -6470,7 +6464,7 @@
         <v>333</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
@@ -6590,7 +6584,7 @@
         <v>352</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
@@ -6628,7 +6622,7 @@
         <v>357</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
@@ -6647,7 +6641,7 @@
         <v>360</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
@@ -6687,7 +6681,7 @@
         <v>366</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
@@ -6708,7 +6702,7 @@
         <v>368</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
@@ -6733,7 +6727,7 @@
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G56"/>
     </row>
@@ -6748,7 +6742,7 @@
         <v>372</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
@@ -6767,7 +6761,7 @@
         <v>374</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
@@ -6786,7 +6780,7 @@
         <v>376</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
@@ -6805,7 +6799,7 @@
         <v>378</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
@@ -6824,7 +6818,7 @@
         <v>381</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
@@ -6843,7 +6837,7 @@
         <v>383</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
@@ -6862,7 +6856,7 @@
         <v>386</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
@@ -6881,7 +6875,7 @@
         <v>388</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
@@ -6900,7 +6894,7 @@
         <v>390</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
@@ -6919,7 +6913,7 @@
         <v>392</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
@@ -6938,7 +6932,7 @@
         <v>394</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
@@ -6957,7 +6951,7 @@
         <v>396</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
@@ -6976,7 +6970,7 @@
         <v>398</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
@@ -6995,7 +6989,7 @@
         <v>400</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
@@ -7014,7 +7008,7 @@
         <v>402</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
@@ -7033,7 +7027,7 @@
         <v>404</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
@@ -7052,7 +7046,7 @@
         <v>406</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
@@ -7071,7 +7065,7 @@
         <v>408</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
@@ -7090,7 +7084,7 @@
         <v>408</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
@@ -7109,7 +7103,7 @@
         <v>408</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
@@ -7128,7 +7122,7 @@
         <v>408</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
@@ -7141,13 +7135,13 @@
         <v>412</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C78" t="s">
         <v>413</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
@@ -7166,7 +7160,7 @@
         <v>415</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
@@ -7185,7 +7179,7 @@
         <v>417</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
@@ -7204,7 +7198,7 @@
         <v>419</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
@@ -7223,7 +7217,7 @@
         <v>421</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
@@ -7244,7 +7238,7 @@
         <v>423</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
@@ -7265,7 +7259,7 @@
         <v>426</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
@@ -7284,7 +7278,7 @@
         <v>428</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
@@ -7303,7 +7297,7 @@
         <v>430</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
@@ -7322,7 +7316,7 @@
         <v>432</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="s">
@@ -7337,13 +7331,13 @@
         <v>434</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>302</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="s">
@@ -7358,13 +7352,13 @@
         <v>435</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>436</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="s">
@@ -7377,13 +7371,13 @@
         <v>437</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>438</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E90"/>
       <c r="F90" t="s">
@@ -7502,7 +7496,7 @@
         <v>450</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
@@ -7519,7 +7513,7 @@
         <v>452</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
@@ -7536,7 +7530,7 @@
         <v>454</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
@@ -7555,7 +7549,7 @@
         <v>456</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
@@ -7574,7 +7568,7 @@
         <v>459</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
@@ -7593,7 +7587,7 @@
         <v>462</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
@@ -7612,7 +7606,7 @@
         <v>465</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
@@ -7631,11 +7625,11 @@
         <v>468</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G12"/>
     </row>
@@ -7650,11 +7644,11 @@
         <v>470</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G13"/>
     </row>
@@ -7669,11 +7663,11 @@
         <v>472</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G14"/>
     </row>
@@ -7688,7 +7682,7 @@
         <v>474</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
@@ -7707,7 +7701,7 @@
         <v>476</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
@@ -7726,7 +7720,7 @@
         <v>478</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
@@ -7739,13 +7733,13 @@
         <v>479</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>480</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
@@ -7758,13 +7752,13 @@
         <v>481</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>482</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
@@ -7777,13 +7771,13 @@
         <v>483</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>484</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
@@ -7802,7 +7796,7 @@
         <v>486</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
@@ -7821,7 +7815,7 @@
         <v>488</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
@@ -7834,13 +7828,13 @@
         <v>489</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>490</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
@@ -7986,7 +7980,7 @@
         <v>515</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>516</v>
@@ -8024,7 +8018,7 @@
         <v>523</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>524</v>
@@ -8062,7 +8056,7 @@
         <v>529</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>530</v>
@@ -8119,13 +8113,13 @@
         <v>538</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>539</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
@@ -8138,13 +8132,13 @@
         <v>540</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>541</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
@@ -8163,7 +8157,7 @@
         <v>544</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
@@ -8221,13 +8215,13 @@
         <v>545</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>546</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -8239,16 +8233,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -8260,16 +8254,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
@@ -8279,16 +8273,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
@@ -8298,16 +8292,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
@@ -8317,16 +8311,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
         <v>547</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -8347,7 +8341,7 @@
         <v>550</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -8362,13 +8356,13 @@
         <v>551</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>552</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
@@ -8381,13 +8375,13 @@
         <v>553</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>554</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
@@ -8425,7 +8419,7 @@
         <v>561</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
@@ -8444,7 +8438,7 @@
         <v>564</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
@@ -8463,83 +8457,83 @@
         <v>567</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>568</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
@@ -8549,16 +8543,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B19" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C19" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D19" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
@@ -8568,16 +8562,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B20" t="s">
         <v>549</v>
       </c>
       <c r="C20" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
@@ -8587,16 +8581,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
@@ -8651,16 +8645,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -8672,16 +8666,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
@@ -8691,16 +8685,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -8712,16 +8706,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -8733,16 +8727,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -8754,16 +8748,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
@@ -8773,16 +8767,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
@@ -8792,16 +8786,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
@@ -8811,16 +8805,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
@@ -8830,16 +8824,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
@@ -8894,16 +8888,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B2" t="s">
         <v>549</v>
       </c>
       <c r="C2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -8915,16 +8909,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
@@ -8934,16 +8928,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
@@ -8953,16 +8947,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -8977,13 +8971,13 @@
         <v>545</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -8995,16 +8989,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -9016,16 +9010,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
@@ -9035,16 +9029,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
@@ -9054,16 +9048,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
@@ -9073,16 +9067,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B11" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C11" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -9094,16 +9088,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
@@ -9113,16 +9107,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -9134,16 +9128,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
@@ -9153,16 +9147,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
@@ -9172,16 +9166,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
@@ -9191,16 +9185,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
@@ -9210,16 +9204,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B18" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C18" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
@@ -9229,16 +9223,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
@@ -9248,16 +9242,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
@@ -9267,16 +9261,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B21" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C21" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
@@ -9286,16 +9280,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B22" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C22" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
@@ -9305,16 +9299,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B23" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
@@ -9324,16 +9318,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B24" t="s">
         <v>212</v>
       </c>
       <c r="C24" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
@@ -9343,16 +9337,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B25" t="s">
         <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">

--- a/sormas-base/doc/SormasDictionary.xlsx
+++ b/sormas-base/doc/SormasDictionary.xlsx
@@ -2232,14 +2232,318 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Person" displayName="Person" ref="A1:G31">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Sample_test" displayName="Sample_test" ref="A1:G12">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Task" displayName="Task" ref="A1:G19">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Facility" displayName="Facility" ref="A1:G10">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="User" displayName="User" ref="A1:G14">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Region" displayName="Region" ref="A1:G5">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="District" displayName="District" ref="A1:G6">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Community" displayName="Community" ref="A1:G3">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Location" displayName="Location" ref="A1:G10">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Case" displayName="Case" ref="A1:G38">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="CaseHospitalization" displayName="CaseHospitalization" ref="A1:G8">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Symptoms" displayName="Symptoms" ref="A1:G90">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Epidemiological_data" displayName="Epidemiological_data" ref="A1:G40">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Contact" displayName="Contact" ref="A1:G21">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Visit" displayName="Visit" ref="A1:G11">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Sample" displayName="Sample" ref="A1:G25">
+  <autoFilter/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Values"/>
+    <tableColumn id="3" name="Caption"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Required"/>
+    <tableColumn id="6" name="Diseases"/>
+    <tableColumn id="7" name="Outbreaks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="false" showLastColumn="false" showRowStripes="true" showColumnStripes="false"/>
+</table>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
@@ -2282,19 +2586,19 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="b">
@@ -2305,19 +2609,19 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="b">
@@ -2328,17 +2632,17 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
@@ -2347,17 +2651,17 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5"/>
@@ -2366,17 +2670,17 @@
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E6"/>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="b">
@@ -2387,17 +2691,17 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E7"/>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="b">
@@ -2408,17 +2712,17 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E8"/>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="b">
@@ -2429,17 +2733,17 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E9"/>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="b">
@@ -2450,17 +2754,17 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E10"/>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="b">
@@ -2471,17 +2775,17 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E11"/>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="b">
@@ -2492,17 +2796,17 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E12"/>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" t="b">
@@ -2513,17 +2817,17 @@
       <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E13"/>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G13"/>
@@ -2532,17 +2836,17 @@
       <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E14"/>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14"/>
@@ -2551,17 +2855,17 @@
       <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E15"/>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15"/>
@@ -2570,17 +2874,17 @@
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16"/>
@@ -2589,17 +2893,17 @@
       <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E17"/>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G17"/>
@@ -2608,17 +2912,17 @@
       <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E18"/>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G18"/>
@@ -2627,17 +2931,17 @@
       <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E19"/>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G19"/>
@@ -2646,17 +2950,17 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E20"/>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G20"/>
@@ -2665,17 +2969,17 @@
       <c r="A21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E21"/>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G21"/>
@@ -2684,17 +2988,17 @@
       <c r="A22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E22"/>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G22"/>
@@ -2703,17 +3007,17 @@
       <c r="A23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>67</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E23"/>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G23"/>
@@ -2722,17 +3026,17 @@
       <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E24"/>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G24"/>
@@ -2741,17 +3045,17 @@
       <c r="A25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E25"/>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25"/>
@@ -2760,17 +3064,17 @@
       <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E26"/>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G26"/>
@@ -2779,17 +3083,17 @@
       <c r="A27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>78</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E27"/>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27"/>
@@ -2798,17 +3102,17 @@
       <c r="A28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E28"/>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G28"/>
@@ -2817,17 +3121,17 @@
       <c r="A29" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C29" t="s">
         <v>84</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E29"/>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G29"/>
@@ -2836,17 +3140,17 @@
       <c r="A30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C30" t="s">
         <v>87</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E30"/>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G30"/>
@@ -2855,28 +3159,31 @@
       <c r="A31" t="s">
         <v>88</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E31"/>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G31"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2919,19 +3226,19 @@
       <c r="A2" t="s">
         <v>642</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>637</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G2"/>
@@ -2940,19 +3247,19 @@
       <c r="A3" t="s">
         <v>643</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>634</v>
       </c>
       <c r="C3" t="s">
         <v>644</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G3"/>
@@ -2961,17 +3268,17 @@
       <c r="A4" t="s">
         <v>645</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>646</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
@@ -2980,19 +3287,19 @@
       <c r="A5" t="s">
         <v>647</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>648</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
         <v>649</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G5"/>
@@ -3001,19 +3308,19 @@
       <c r="A6" t="s">
         <v>613</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>614</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G6"/>
@@ -3022,17 +3329,17 @@
       <c r="A7" t="s">
         <v>615</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>616</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E7"/>
-      <c r="F7" t="s">
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G7"/>
@@ -3041,19 +3348,19 @@
       <c r="A8" t="s">
         <v>650</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G8"/>
@@ -3062,19 +3369,19 @@
       <c r="A9" t="s">
         <v>651</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>652</v>
       </c>
       <c r="C9" t="s">
         <v>653</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G9"/>
@@ -3083,19 +3390,19 @@
       <c r="A10" t="s">
         <v>654</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>655</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G10"/>
@@ -3104,17 +3411,17 @@
       <c r="A11" t="s">
         <v>656</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>212</v>
       </c>
       <c r="C11" t="s">
         <v>657</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E11"/>
-      <c r="F11" t="s">
+      <c r="F11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G11"/>
@@ -3123,28 +3430,31 @@
       <c r="A12" t="s">
         <v>658</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>212</v>
       </c>
       <c r="C12" t="s">
         <v>659</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="10" t="s">
         <v>660</v>
       </c>
       <c r="E12"/>
-      <c r="F12" t="s">
+      <c r="F12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G12"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3187,19 +3497,19 @@
       <c r="A2" t="s">
         <v>661</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>662</v>
       </c>
       <c r="C2" t="s">
         <v>663</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G2"/>
@@ -3208,17 +3518,17 @@
       <c r="A3" t="s">
         <v>548</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>549</v>
       </c>
       <c r="C3" t="s">
         <v>600</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G3"/>
@@ -3227,17 +3537,17 @@
       <c r="A4" t="s">
         <v>664</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>665</v>
       </c>
       <c r="C4" t="s">
         <v>666</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
@@ -3246,17 +3556,17 @@
       <c r="A5" t="s">
         <v>667</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>668</v>
       </c>
       <c r="C5" t="s">
         <v>669</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G5"/>
@@ -3265,19 +3575,19 @@
       <c r="A6" t="s">
         <v>670</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>671</v>
       </c>
       <c r="C6" t="s">
         <v>672</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="s">
         <v>673</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G6"/>
@@ -3286,17 +3596,17 @@
       <c r="A7" t="s">
         <v>674</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>675</v>
       </c>
       <c r="C7" t="s">
         <v>676</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E7"/>
-      <c r="F7" t="s">
+      <c r="F7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G7"/>
@@ -3305,19 +3615,19 @@
       <c r="A8" t="s">
         <v>677</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>678</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G8"/>
@@ -3326,17 +3636,17 @@
       <c r="A9" t="s">
         <v>679</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>680</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E9"/>
-      <c r="F9" t="s">
+      <c r="F9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G9"/>
@@ -3345,17 +3655,17 @@
       <c r="A10" t="s">
         <v>681</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>682</v>
       </c>
       <c r="C10" t="s">
         <v>683</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E10"/>
-      <c r="F10" t="s">
+      <c r="F10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G10"/>
@@ -3364,17 +3674,17 @@
       <c r="A11" t="s">
         <v>684</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>685</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E11"/>
-      <c r="F11" t="s">
+      <c r="F11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G11"/>
@@ -3383,17 +3693,17 @@
       <c r="A12" t="s">
         <v>686</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>687</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E12"/>
-      <c r="F12" t="s">
+      <c r="F12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G12"/>
@@ -3402,17 +3712,17 @@
       <c r="A13" t="s">
         <v>688</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C13" t="s">
         <v>689</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E13"/>
-      <c r="F13" t="s">
+      <c r="F13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G13"/>
@@ -3421,17 +3731,17 @@
       <c r="A14" t="s">
         <v>690</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>691</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E14"/>
-      <c r="F14" t="s">
+      <c r="F14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G14"/>
@@ -3440,19 +3750,19 @@
       <c r="A15" t="s">
         <v>692</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C15" t="s">
         <v>693</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G15"/>
@@ -3461,17 +3771,17 @@
       <c r="A16" t="s">
         <v>694</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>695</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
-      <c r="F16" t="s">
+      <c r="F16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G16"/>
@@ -3480,17 +3790,17 @@
       <c r="A17" t="s">
         <v>696</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E17"/>
-      <c r="F17" t="s">
+      <c r="F17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G17"/>
@@ -3499,17 +3809,17 @@
       <c r="A18" t="s">
         <v>697</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E18"/>
-      <c r="F18" t="s">
+      <c r="F18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G18"/>
@@ -3518,28 +3828,31 @@
       <c r="A19" t="s">
         <v>698</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E19"/>
-      <c r="F19" t="s">
+      <c r="F19" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G19"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3582,17 +3895,17 @@
       <c r="A2" t="s">
         <v>699</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>700</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E2"/>
-      <c r="F2" t="s">
+      <c r="F2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G2"/>
@@ -3601,17 +3914,17 @@
       <c r="A3" t="s">
         <v>90</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G3"/>
@@ -3620,17 +3933,17 @@
       <c r="A4" t="s">
         <v>92</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="F4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
@@ -3639,17 +3952,17 @@
       <c r="A5" t="s">
         <v>94</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="F5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G5"/>
@@ -3658,17 +3971,17 @@
       <c r="A6" t="s">
         <v>99</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>100</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E6"/>
-      <c r="F6" t="s">
+      <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G6"/>
@@ -3677,17 +3990,17 @@
       <c r="A7" t="s">
         <v>101</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>701</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E7"/>
-      <c r="F7" t="s">
+      <c r="F7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G7"/>
@@ -3696,17 +4009,17 @@
       <c r="A8" t="s">
         <v>104</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>702</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E8"/>
-      <c r="F8" t="s">
+      <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G8"/>
@@ -3715,17 +4028,17 @@
       <c r="A9" t="s">
         <v>703</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>704</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E9"/>
-      <c r="F9" t="s">
+      <c r="F9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G9"/>
@@ -3734,28 +4047,31 @@
       <c r="A10" t="s">
         <v>705</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>212</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E10"/>
-      <c r="F10" t="s">
+      <c r="F10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G10"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3798,17 +4114,17 @@
       <c r="A2" t="s">
         <v>706</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>212</v>
       </c>
       <c r="C2" t="s">
         <v>707</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E2"/>
-      <c r="F2" t="s">
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G2"/>
@@ -3817,17 +4133,17 @@
       <c r="A3" t="s">
         <v>708</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>709</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G3"/>
@@ -3836,17 +4152,17 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
@@ -3855,17 +4171,17 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="F5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G5"/>
@@ -3874,17 +4190,17 @@
       <c r="A6" t="s">
         <v>710</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>711</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E6"/>
-      <c r="F6" t="s">
+      <c r="F6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G6"/>
@@ -3893,17 +4209,17 @@
       <c r="A7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E7"/>
-      <c r="F7" t="s">
+      <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G7"/>
@@ -3912,17 +4228,17 @@
       <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E8"/>
-      <c r="F8" t="s">
+      <c r="F8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G8"/>
@@ -3931,15 +4247,15 @@
       <c r="A9" t="s">
         <v>712</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" s="13"/>
       <c r="C9" t="s">
         <v>713</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E9"/>
-      <c r="F9" t="s">
+      <c r="F9" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G9"/>
@@ -3948,17 +4264,17 @@
       <c r="A10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E10"/>
-      <c r="F10" t="s">
+      <c r="F10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G10"/>
@@ -3967,17 +4283,17 @@
       <c r="A11" t="s">
         <v>92</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>93</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E11"/>
-      <c r="F11" t="s">
+      <c r="F11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G11"/>
@@ -3986,17 +4302,17 @@
       <c r="A12" t="s">
         <v>155</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C12" t="s">
         <v>156</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E12"/>
-      <c r="F12" t="s">
+      <c r="F12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G12"/>
@@ -4005,17 +4321,17 @@
       <c r="A13" t="s">
         <v>714</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C13" t="s">
         <v>614</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E13"/>
-      <c r="F13" t="s">
+      <c r="F13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G13"/>
@@ -4024,28 +4340,31 @@
       <c r="A14" t="s">
         <v>715</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
         <v>131</v>
       </c>
       <c r="C14" t="s">
         <v>716</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E14"/>
-      <c r="F14" t="s">
+      <c r="F14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G14"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4088,17 +4407,17 @@
       <c r="A2" t="s">
         <v>699</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>700</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E2"/>
-      <c r="F2" t="s">
+      <c r="F2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G2"/>
@@ -4107,17 +4426,17 @@
       <c r="A3" t="s">
         <v>717</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>718</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G3"/>
@@ -4126,17 +4445,17 @@
       <c r="A4" t="s">
         <v>719</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>720</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="F4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
@@ -4145,28 +4464,31 @@
       <c r="A5" t="s">
         <v>721</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>722</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="F5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4209,17 +4531,17 @@
       <c r="A2" t="s">
         <v>699</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>700</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E2"/>
-      <c r="F2" t="s">
+      <c r="F2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G2"/>
@@ -4228,17 +4550,17 @@
       <c r="A3" t="s">
         <v>717</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>718</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G3"/>
@@ -4247,17 +4569,17 @@
       <c r="A4" t="s">
         <v>719</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>720</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="F4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
@@ -4266,17 +4588,17 @@
       <c r="A5" t="s">
         <v>721</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>722</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="F5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G5"/>
@@ -4285,28 +4607,31 @@
       <c r="A6" t="s">
         <v>90</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E6"/>
-      <c r="F6" t="s">
+      <c r="F6" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G6"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4349,17 +4674,17 @@
       <c r="A2" t="s">
         <v>699</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>700</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E2"/>
-      <c r="F2" t="s">
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G2"/>
@@ -4368,28 +4693,31 @@
       <c r="A3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4432,17 +4760,17 @@
       <c r="A2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2"/>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G2"/>
@@ -4451,17 +4779,17 @@
       <c r="A3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G3"/>
@@ -4470,17 +4798,17 @@
       <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
@@ -4489,17 +4817,17 @@
       <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G5"/>
@@ -4508,17 +4836,17 @@
       <c r="A6" t="s">
         <v>97</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>98</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6"/>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G6"/>
@@ -4527,17 +4855,17 @@
       <c r="A7" t="s">
         <v>99</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E7"/>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G7"/>
@@ -4546,17 +4874,17 @@
       <c r="A8" t="s">
         <v>101</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E8"/>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G8"/>
@@ -4565,17 +4893,17 @@
       <c r="A9" t="s">
         <v>104</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>105</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E9"/>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G9"/>
@@ -4584,28 +4912,31 @@
       <c r="A10" t="s">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E10"/>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G10"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
@@ -4648,19 +4979,19 @@
       <c r="A2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="b">
@@ -4671,17 +5002,17 @@
       <c r="A3" t="s">
         <v>113</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>114</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="b">
@@ -4692,17 +5023,17 @@
       <c r="A4" t="s">
         <v>115</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>117</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>118</v>
       </c>
       <c r="G4" t="b">
@@ -4713,17 +5044,17 @@
       <c r="A5" t="s">
         <v>119</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>121</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G5" t="b">
@@ -4734,19 +5065,19 @@
       <c r="A6" t="s">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>125</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G6"/>
@@ -4755,17 +5086,17 @@
       <c r="A7" t="s">
         <v>126</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>127</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E7"/>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="b">
@@ -4776,19 +5107,19 @@
       <c r="A8" t="s">
         <v>128</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>129</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="b">
@@ -4799,19 +5130,19 @@
       <c r="A9" t="s">
         <v>130</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C9" t="s">
         <v>132</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="b">
@@ -4822,17 +5153,17 @@
       <c r="A10" t="s">
         <v>133</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>134</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E10"/>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="b">
@@ -4843,19 +5174,19 @@
       <c r="A11" t="s">
         <v>136</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C11" t="s">
         <v>138</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="b">
@@ -4866,17 +5197,17 @@
       <c r="A12" t="s">
         <v>140</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C12" t="s">
         <v>141</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E12"/>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G12" t="b">
@@ -4887,17 +5218,17 @@
       <c r="A13" t="s">
         <v>142</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>143</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E13"/>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="b">
@@ -4908,17 +5239,17 @@
       <c r="A14" t="s">
         <v>144</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E14"/>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="b">
@@ -4929,19 +5260,19 @@
       <c r="A15" t="s">
         <v>145</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C15" t="s">
         <v>147</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="b">
@@ -4952,17 +5283,17 @@
       <c r="A16" t="s">
         <v>148</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>149</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G16" t="b">
@@ -4973,17 +5304,17 @@
       <c r="A17" t="s">
         <v>150</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C17" t="s">
         <v>152</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E17"/>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G17" t="b">
@@ -4994,17 +5325,17 @@
       <c r="A18" t="s">
         <v>153</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>154</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E18"/>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G18" t="b">
@@ -5015,19 +5346,19 @@
       <c r="A19" t="s">
         <v>90</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G19" t="b">
@@ -5038,19 +5369,19 @@
       <c r="A20" t="s">
         <v>92</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C20" t="s">
         <v>93</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="b">
@@ -5061,17 +5392,17 @@
       <c r="A21" t="s">
         <v>94</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C21" t="s">
         <v>95</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E21"/>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="b">
@@ -5082,19 +5413,19 @@
       <c r="A22" t="s">
         <v>155</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C22" t="s">
         <v>156</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>157</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="b">
@@ -5105,17 +5436,17 @@
       <c r="A23" t="s">
         <v>158</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>89</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E23"/>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="b">
@@ -5126,17 +5457,17 @@
       <c r="A24" t="s">
         <v>159</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C24" t="s">
         <v>161</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>162</v>
       </c>
       <c r="E24"/>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G24"/>
@@ -5145,17 +5476,17 @@
       <c r="A25" t="s">
         <v>163</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C25" t="s">
         <v>165</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E25"/>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>166</v>
       </c>
       <c r="G25" t="b">
@@ -5166,17 +5497,17 @@
       <c r="A26" t="s">
         <v>167</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>168</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E26"/>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G26" t="b">
@@ -5187,17 +5518,17 @@
       <c r="A27" t="s">
         <v>170</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>171</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E27"/>
-      <c r="F27" t="s">
+      <c r="F27" s="3" t="s">
         <v>172</v>
       </c>
       <c r="G27" t="b">
@@ -5208,17 +5539,17 @@
       <c r="A28" t="s">
         <v>173</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C28" t="s">
         <v>175</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E28"/>
-      <c r="F28" t="s">
+      <c r="F28" s="3" t="s">
         <v>166</v>
       </c>
       <c r="G28"/>
@@ -5227,17 +5558,17 @@
       <c r="A29" t="s">
         <v>176</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C29" t="s">
         <v>177</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E29"/>
-      <c r="F29" t="s">
+      <c r="F29" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G29"/>
@@ -5246,17 +5577,17 @@
       <c r="A30" t="s">
         <v>179</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C30" t="s">
         <v>180</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E30"/>
-      <c r="F30" t="s">
+      <c r="F30" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G30"/>
@@ -5265,17 +5596,17 @@
       <c r="A31" t="s">
         <v>181</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C31" t="s">
         <v>182</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E31"/>
-      <c r="F31" t="s">
+      <c r="F31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="b">
@@ -5286,17 +5617,17 @@
       <c r="A32" t="s">
         <v>183</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C32" t="s">
         <v>184</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E32"/>
-      <c r="F32" t="s">
+      <c r="F32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G32"/>
@@ -5305,17 +5636,17 @@
       <c r="A33" t="s">
         <v>185</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E33"/>
-      <c r="F33" t="s">
+      <c r="F33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G33"/>
@@ -5324,17 +5655,17 @@
       <c r="A34" t="s">
         <v>186</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E34"/>
-      <c r="F34" t="s">
+      <c r="F34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G34"/>
@@ -5343,17 +5674,17 @@
       <c r="A35" t="s">
         <v>187</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E35"/>
-      <c r="F35" t="s">
+      <c r="F35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G35"/>
@@ -5362,17 +5693,17 @@
       <c r="A36" t="s">
         <v>188</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C36" t="s">
         <v>189</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E36"/>
-      <c r="F36" t="s">
+      <c r="F36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G36"/>
@@ -5381,17 +5712,17 @@
       <c r="A37" t="s">
         <v>190</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C37" t="s">
         <v>191</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E37"/>
-      <c r="F37" t="s">
+      <c r="F37" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G37"/>
@@ -5400,28 +5731,31 @@
       <c r="A38" t="s">
         <v>192</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C38" t="s">
         <v>194</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E38"/>
-      <c r="F38" t="s">
+      <c r="F38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G38"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5464,17 +5798,17 @@
       <c r="A2" t="s">
         <v>195</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E2"/>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="b">
@@ -5485,17 +5819,17 @@
       <c r="A3" t="s">
         <v>197</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>198</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>199</v>
       </c>
       <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G3"/>
@@ -5504,17 +5838,17 @@
       <c r="A4" t="s">
         <v>200</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>201</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
@@ -5523,17 +5857,17 @@
       <c r="A5" t="s">
         <v>202</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C5" t="s">
         <v>203</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G5"/>
@@ -5542,17 +5876,17 @@
       <c r="A6" t="s">
         <v>205</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>206</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E6"/>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6"/>
@@ -5561,17 +5895,17 @@
       <c r="A7" t="s">
         <v>207</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>208</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E7"/>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G7"/>
@@ -5580,26 +5914,29 @@
       <c r="A8" t="s">
         <v>209</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>210</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E8"/>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G8"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5642,17 +5979,17 @@
       <c r="A2" t="s">
         <v>211</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>212</v>
       </c>
       <c r="C2" t="s">
         <v>213</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E2"/>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G2"/>
@@ -5661,17 +5998,17 @@
       <c r="A3" t="s">
         <v>215</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>216</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>217</v>
       </c>
       <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="b">
@@ -5682,17 +6019,17 @@
       <c r="A4" t="s">
         <v>218</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>219</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>220</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
@@ -5701,17 +6038,17 @@
       <c r="A5" t="s">
         <v>221</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>222</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>223</v>
       </c>
       <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>224</v>
       </c>
       <c r="G5" t="b">
@@ -5722,17 +6059,17 @@
       <c r="A6" t="s">
         <v>225</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>226</v>
       </c>
       <c r="C6" t="s">
         <v>227</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>228</v>
       </c>
       <c r="E6"/>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>224</v>
       </c>
       <c r="G6" t="b">
@@ -5743,17 +6080,17 @@
       <c r="A7" t="s">
         <v>229</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>230</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>231</v>
       </c>
       <c r="E7"/>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>224</v>
       </c>
       <c r="G7" t="b">
@@ -5764,17 +6101,17 @@
       <c r="A8" t="s">
         <v>232</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E8"/>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>224</v>
       </c>
       <c r="G8" t="b">
@@ -5785,17 +6122,17 @@
       <c r="A9" t="s">
         <v>234</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C9" t="s">
         <v>235</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E9"/>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>237</v>
       </c>
       <c r="G9" t="b">
@@ -5806,17 +6143,17 @@
       <c r="A10" t="s">
         <v>238</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C10" t="s">
         <v>239</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E10"/>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>240</v>
       </c>
       <c r="G10"/>
@@ -5825,17 +6162,17 @@
       <c r="A11" t="s">
         <v>241</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C11" t="s">
         <v>242</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>243</v>
       </c>
       <c r="E11"/>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>244</v>
       </c>
       <c r="G11"/>
@@ -5844,17 +6181,17 @@
       <c r="A12" t="s">
         <v>245</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C12" t="s">
         <v>246</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E12"/>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>240</v>
       </c>
       <c r="G12"/>
@@ -5863,17 +6200,17 @@
       <c r="A13" t="s">
         <v>247</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>248</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E13"/>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>249</v>
       </c>
       <c r="G13" t="b">
@@ -5884,17 +6221,17 @@
       <c r="A14" t="s">
         <v>250</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C14" t="s">
         <v>251</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E14"/>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>252</v>
       </c>
       <c r="G14" t="b">
@@ -5905,17 +6242,17 @@
       <c r="A15" t="s">
         <v>253</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C15" t="s">
         <v>254</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E15"/>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>255</v>
       </c>
       <c r="G15"/>
@@ -5924,17 +6261,17 @@
       <c r="A16" t="s">
         <v>256</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C16" t="s">
         <v>257</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G16" t="b">
@@ -5945,17 +6282,17 @@
       <c r="A17" t="s">
         <v>259</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C17" t="s">
         <v>260</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>261</v>
       </c>
       <c r="E17"/>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>224</v>
       </c>
       <c r="G17" t="b">
@@ -5966,17 +6303,17 @@
       <c r="A18" t="s">
         <v>262</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C18" t="s">
         <v>263</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>264</v>
       </c>
       <c r="E18"/>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>224</v>
       </c>
       <c r="G18" t="b">
@@ -5987,17 +6324,17 @@
       <c r="A19" t="s">
         <v>265</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C19" t="s">
         <v>266</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>267</v>
       </c>
       <c r="E19"/>
-      <c r="F19" t="s">
+      <c r="F19" s="5" t="s">
         <v>268</v>
       </c>
       <c r="G19"/>
@@ -6006,17 +6343,17 @@
       <c r="A20" t="s">
         <v>269</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C20" t="s">
         <v>270</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E20"/>
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
         <v>271</v>
       </c>
       <c r="G20"/>
@@ -6025,17 +6362,17 @@
       <c r="A21" t="s">
         <v>272</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C21" t="s">
         <v>273</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E21"/>
-      <c r="F21" t="s">
+      <c r="F21" s="5" t="s">
         <v>274</v>
       </c>
       <c r="G21"/>
@@ -6044,17 +6381,17 @@
       <c r="A22" t="s">
         <v>275</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C22" t="s">
         <v>276</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E22"/>
-      <c r="F22" t="s">
+      <c r="F22" s="5" t="s">
         <v>271</v>
       </c>
       <c r="G22"/>
@@ -6063,17 +6400,17 @@
       <c r="A23" t="s">
         <v>277</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C23" t="s">
         <v>278</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E23"/>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>279</v>
       </c>
       <c r="G23"/>
@@ -6082,17 +6419,17 @@
       <c r="A24" t="s">
         <v>280</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C24" t="s">
         <v>281</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E24"/>
-      <c r="F24" t="s">
+      <c r="F24" s="5" t="s">
         <v>282</v>
       </c>
       <c r="G24"/>
@@ -6101,17 +6438,17 @@
       <c r="A25" t="s">
         <v>283</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C25" t="s">
         <v>284</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E25"/>
-      <c r="F25" t="s">
+      <c r="F25" s="5" t="s">
         <v>279</v>
       </c>
       <c r="G25"/>
@@ -6120,17 +6457,17 @@
       <c r="A26" t="s">
         <v>285</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C26" t="s">
         <v>286</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E26"/>
-      <c r="F26" t="s">
+      <c r="F26" s="5" t="s">
         <v>287</v>
       </c>
       <c r="G26"/>
@@ -6139,17 +6476,17 @@
       <c r="A27" t="s">
         <v>288</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C27" t="s">
         <v>289</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E27"/>
-      <c r="F27" t="s">
+      <c r="F27" s="5" t="s">
         <v>279</v>
       </c>
       <c r="G27"/>
@@ -6158,17 +6495,17 @@
       <c r="A28" t="s">
         <v>290</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C28" t="s">
         <v>291</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E28"/>
-      <c r="F28" t="s">
+      <c r="F28" s="5" t="s">
         <v>292</v>
       </c>
       <c r="G28" t="b">
@@ -6179,17 +6516,17 @@
       <c r="A29" t="s">
         <v>293</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C29" t="s">
         <v>294</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E29"/>
-      <c r="F29" t="s">
+      <c r="F29" s="5" t="s">
         <v>279</v>
       </c>
       <c r="G29"/>
@@ -6198,17 +6535,17 @@
       <c r="A30" t="s">
         <v>295</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C30" t="s">
         <v>296</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E30"/>
-      <c r="F30" t="s">
+      <c r="F30" s="5" t="s">
         <v>279</v>
       </c>
       <c r="G30"/>
@@ -6217,17 +6554,17 @@
       <c r="A31" t="s">
         <v>297</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C31" t="s">
         <v>298</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E31"/>
-      <c r="F31" t="s">
+      <c r="F31" s="5" t="s">
         <v>279</v>
       </c>
       <c r="G31"/>
@@ -6236,17 +6573,17 @@
       <c r="A32" t="s">
         <v>299</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C32" t="s">
         <v>300</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E32"/>
-      <c r="F32" t="s">
+      <c r="F32" s="5" t="s">
         <v>292</v>
       </c>
       <c r="G32"/>
@@ -6255,17 +6592,17 @@
       <c r="A33" t="s">
         <v>301</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>302</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>303</v>
       </c>
       <c r="E33"/>
-      <c r="F33" t="s">
+      <c r="F33" s="5" t="s">
         <v>292</v>
       </c>
       <c r="G33"/>
@@ -6274,17 +6611,17 @@
       <c r="A34" t="s">
         <v>304</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C34" t="s">
         <v>305</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>306</v>
       </c>
       <c r="E34"/>
-      <c r="F34" t="s">
+      <c r="F34" s="5" t="s">
         <v>307</v>
       </c>
       <c r="G34" t="b">
@@ -6295,17 +6632,17 @@
       <c r="A35" t="s">
         <v>308</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C35" t="s">
         <v>309</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E35"/>
-      <c r="F35" t="s">
+      <c r="F35" s="5" t="s">
         <v>249</v>
       </c>
       <c r="G35" t="b">
@@ -6316,17 +6653,17 @@
       <c r="A36" t="s">
         <v>310</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C36" t="s">
         <v>311</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>312</v>
       </c>
       <c r="E36"/>
-      <c r="F36" t="s">
+      <c r="F36" s="5" t="s">
         <v>249</v>
       </c>
       <c r="G36" t="b">
@@ -6337,17 +6674,17 @@
       <c r="A37" t="s">
         <v>313</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C37" t="s">
         <v>314</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E37"/>
-      <c r="F37" t="s">
+      <c r="F37" s="5" t="s">
         <v>315</v>
       </c>
       <c r="G37"/>
@@ -6356,17 +6693,17 @@
       <c r="A38" t="s">
         <v>316</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C38" t="s">
         <v>317</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E38"/>
-      <c r="F38" t="s">
+      <c r="F38" s="5" t="s">
         <v>318</v>
       </c>
       <c r="G38" t="b">
@@ -6377,17 +6714,17 @@
       <c r="A39" t="s">
         <v>319</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C39" t="s">
         <v>320</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>321</v>
       </c>
       <c r="E39"/>
-      <c r="F39" t="s">
+      <c r="F39" s="5" t="s">
         <v>322</v>
       </c>
       <c r="G39"/>
@@ -6396,17 +6733,17 @@
       <c r="A40" t="s">
         <v>323</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C40" t="s">
         <v>324</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>325</v>
       </c>
       <c r="E40"/>
-      <c r="F40" t="s">
+      <c r="F40" s="5" t="s">
         <v>326</v>
       </c>
       <c r="G40"/>
@@ -6415,17 +6752,17 @@
       <c r="A41" t="s">
         <v>327</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C41" t="s">
         <v>328</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E41"/>
-      <c r="F41" t="s">
+      <c r="F41" s="5" t="s">
         <v>329</v>
       </c>
       <c r="G41" t="b">
@@ -6436,17 +6773,17 @@
       <c r="A42" t="s">
         <v>330</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C42" t="s">
         <v>331</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="5" t="s">
         <v>331</v>
       </c>
       <c r="E42"/>
-      <c r="F42" t="s">
+      <c r="F42" s="5" t="s">
         <v>237</v>
       </c>
       <c r="G42" t="b">
@@ -6457,17 +6794,17 @@
       <c r="A43" t="s">
         <v>332</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C43" t="s">
         <v>333</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E43"/>
-      <c r="F43" t="s">
+      <c r="F43" s="5" t="s">
         <v>334</v>
       </c>
       <c r="G43" t="b">
@@ -6478,17 +6815,17 @@
       <c r="A44" t="s">
         <v>335</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C44" t="s">
         <v>336</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>337</v>
       </c>
       <c r="E44"/>
-      <c r="F44" t="s">
+      <c r="F44" s="5" t="s">
         <v>334</v>
       </c>
       <c r="G44" t="b">
@@ -6499,17 +6836,17 @@
       <c r="A45" t="s">
         <v>338</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C45" t="s">
         <v>339</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="5" t="s">
         <v>340</v>
       </c>
       <c r="E45"/>
-      <c r="F45" t="s">
+      <c r="F45" s="5" t="s">
         <v>315</v>
       </c>
       <c r="G45"/>
@@ -6518,17 +6855,17 @@
       <c r="A46" t="s">
         <v>341</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C46" t="s">
         <v>342</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="5" t="s">
         <v>343</v>
       </c>
       <c r="E46"/>
-      <c r="F46" t="s">
+      <c r="F46" s="5" t="s">
         <v>344</v>
       </c>
       <c r="G46" t="b">
@@ -6539,17 +6876,17 @@
       <c r="A47" t="s">
         <v>345</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C47" t="s">
         <v>346</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>346</v>
       </c>
       <c r="E47"/>
-      <c r="F47" t="s">
+      <c r="F47" s="5" t="s">
         <v>347</v>
       </c>
       <c r="G47"/>
@@ -6558,17 +6895,17 @@
       <c r="A48" t="s">
         <v>348</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C48" t="s">
         <v>349</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>350</v>
       </c>
       <c r="E48"/>
-      <c r="F48" t="s">
+      <c r="F48" s="5" t="s">
         <v>279</v>
       </c>
       <c r="G48"/>
@@ -6577,17 +6914,17 @@
       <c r="A49" t="s">
         <v>351</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C49" t="s">
         <v>352</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E49"/>
-      <c r="F49" t="s">
+      <c r="F49" s="5" t="s">
         <v>322</v>
       </c>
       <c r="G49"/>
@@ -6596,17 +6933,17 @@
       <c r="A50" t="s">
         <v>353</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C50" t="s">
         <v>354</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>355</v>
       </c>
       <c r="E50"/>
-      <c r="F50" t="s">
+      <c r="F50" s="5" t="s">
         <v>279</v>
       </c>
       <c r="G50"/>
@@ -6615,17 +6952,17 @@
       <c r="A51" t="s">
         <v>356</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C51" t="s">
         <v>357</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E51"/>
-      <c r="F51" t="s">
+      <c r="F51" s="5" t="s">
         <v>358</v>
       </c>
       <c r="G51"/>
@@ -6634,17 +6971,17 @@
       <c r="A52" t="s">
         <v>359</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C52" t="s">
         <v>360</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E52"/>
-      <c r="F52" t="s">
+      <c r="F52" s="5" t="s">
         <v>361</v>
       </c>
       <c r="G52" t="b">
@@ -6655,17 +6992,17 @@
       <c r="A53" t="s">
         <v>362</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C53" t="s">
         <v>363</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>363</v>
       </c>
       <c r="E53"/>
-      <c r="F53" t="s">
+      <c r="F53" s="5" t="s">
         <v>364</v>
       </c>
       <c r="G53"/>
@@ -6674,17 +7011,17 @@
       <c r="A54" t="s">
         <v>365</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C54" t="s">
         <v>366</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E54"/>
-      <c r="F54" t="s">
+      <c r="F54" s="5" t="s">
         <v>307</v>
       </c>
       <c r="G54" t="b">
@@ -6695,17 +7032,17 @@
       <c r="A55" t="s">
         <v>367</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C55" t="s">
         <v>368</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E55"/>
-      <c r="F55" t="s">
+      <c r="F55" s="5" t="s">
         <v>237</v>
       </c>
       <c r="G55" t="b">
@@ -6716,17 +7053,17 @@
       <c r="A56" t="s">
         <v>369</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C56" t="s">
         <v>370</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="5" t="s">
         <v>370</v>
       </c>
       <c r="E56"/>
-      <c r="F56" t="s">
+      <c r="F56" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G56"/>
@@ -6735,17 +7072,17 @@
       <c r="A57" t="s">
         <v>371</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C57" t="s">
         <v>372</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E57"/>
-      <c r="F57" t="s">
+      <c r="F57" s="5" t="s">
         <v>271</v>
       </c>
       <c r="G57"/>
@@ -6754,17 +7091,17 @@
       <c r="A58" t="s">
         <v>373</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C58" t="s">
         <v>374</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E58"/>
-      <c r="F58" t="s">
+      <c r="F58" s="5" t="s">
         <v>271</v>
       </c>
       <c r="G58"/>
@@ -6773,17 +7110,17 @@
       <c r="A59" t="s">
         <v>375</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C59" t="s">
         <v>376</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E59"/>
-      <c r="F59" t="s">
+      <c r="F59" s="5" t="s">
         <v>271</v>
       </c>
       <c r="G59"/>
@@ -6792,17 +7129,17 @@
       <c r="A60" t="s">
         <v>377</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C60" t="s">
         <v>378</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E60"/>
-      <c r="F60" t="s">
+      <c r="F60" s="5" t="s">
         <v>379</v>
       </c>
       <c r="G60"/>
@@ -6811,17 +7148,17 @@
       <c r="A61" t="s">
         <v>380</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C61" t="s">
         <v>381</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E61"/>
-      <c r="F61" t="s">
+      <c r="F61" s="5" t="s">
         <v>379</v>
       </c>
       <c r="G61"/>
@@ -6830,17 +7167,17 @@
       <c r="A62" t="s">
         <v>382</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C62" t="s">
         <v>383</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E62"/>
-      <c r="F62" t="s">
+      <c r="F62" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G62"/>
@@ -6849,17 +7186,17 @@
       <c r="A63" t="s">
         <v>385</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C63" t="s">
         <v>386</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E63"/>
-      <c r="F63" t="s">
+      <c r="F63" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G63"/>
@@ -6868,17 +7205,17 @@
       <c r="A64" t="s">
         <v>387</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C64" t="s">
         <v>388</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E64"/>
-      <c r="F64" t="s">
+      <c r="F64" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G64"/>
@@ -6887,17 +7224,17 @@
       <c r="A65" t="s">
         <v>389</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C65" t="s">
         <v>390</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E65"/>
-      <c r="F65" t="s">
+      <c r="F65" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G65"/>
@@ -6906,17 +7243,17 @@
       <c r="A66" t="s">
         <v>391</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>212</v>
       </c>
       <c r="C66" t="s">
         <v>392</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E66"/>
-      <c r="F66" t="s">
+      <c r="F66" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G66"/>
@@ -6925,17 +7262,17 @@
       <c r="A67" t="s">
         <v>393</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>212</v>
       </c>
       <c r="C67" t="s">
         <v>394</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E67"/>
-      <c r="F67" t="s">
+      <c r="F67" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G67"/>
@@ -6944,17 +7281,17 @@
       <c r="A68" t="s">
         <v>395</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="5" t="s">
         <v>212</v>
       </c>
       <c r="C68" t="s">
         <v>396</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E68"/>
-      <c r="F68" t="s">
+      <c r="F68" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G68"/>
@@ -6963,17 +7300,17 @@
       <c r="A69" t="s">
         <v>397</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
         <v>212</v>
       </c>
       <c r="C69" t="s">
         <v>398</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E69"/>
-      <c r="F69" t="s">
+      <c r="F69" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G69"/>
@@ -6982,17 +7319,17 @@
       <c r="A70" t="s">
         <v>399</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="5" t="s">
         <v>212</v>
       </c>
       <c r="C70" t="s">
         <v>400</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E70"/>
-      <c r="F70" t="s">
+      <c r="F70" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G70"/>
@@ -7001,17 +7338,17 @@
       <c r="A71" t="s">
         <v>401</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
       <c r="C71" t="s">
         <v>402</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E71"/>
-      <c r="F71" t="s">
+      <c r="F71" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G71"/>
@@ -7020,17 +7357,17 @@
       <c r="A72" t="s">
         <v>403</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="5" t="s">
         <v>212</v>
       </c>
       <c r="C72" t="s">
         <v>404</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E72"/>
-      <c r="F72" t="s">
+      <c r="F72" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G72"/>
@@ -7039,17 +7376,17 @@
       <c r="A73" t="s">
         <v>405</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="5" t="s">
         <v>212</v>
       </c>
       <c r="C73" t="s">
         <v>406</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E73"/>
-      <c r="F73" t="s">
+      <c r="F73" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G73"/>
@@ -7058,17 +7395,17 @@
       <c r="A74" t="s">
         <v>407</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C74" t="s">
         <v>408</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E74"/>
-      <c r="F74" t="s">
+      <c r="F74" s="5" t="s">
         <v>178</v>
       </c>
       <c r="G74"/>
@@ -7077,17 +7414,17 @@
       <c r="A75" t="s">
         <v>409</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C75" t="s">
         <v>408</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E75"/>
-      <c r="F75" t="s">
+      <c r="F75" s="5" t="s">
         <v>178</v>
       </c>
       <c r="G75"/>
@@ -7096,17 +7433,17 @@
       <c r="A76" t="s">
         <v>410</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C76" t="s">
         <v>408</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E76"/>
-      <c r="F76" t="s">
+      <c r="F76" s="5" t="s">
         <v>178</v>
       </c>
       <c r="G76"/>
@@ -7115,17 +7452,17 @@
       <c r="A77" t="s">
         <v>411</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C77" t="s">
         <v>408</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E77"/>
-      <c r="F77" t="s">
+      <c r="F77" s="5" t="s">
         <v>178</v>
       </c>
       <c r="G77"/>
@@ -7134,17 +7471,17 @@
       <c r="A78" t="s">
         <v>412</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C78" t="s">
         <v>413</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E78"/>
-      <c r="F78" t="s">
+      <c r="F78" s="5" t="s">
         <v>178</v>
       </c>
       <c r="G78"/>
@@ -7153,17 +7490,17 @@
       <c r="A79" t="s">
         <v>414</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C79" t="s">
         <v>415</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E79"/>
-      <c r="F79" t="s">
+      <c r="F79" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G79"/>
@@ -7172,17 +7509,17 @@
       <c r="A80" t="s">
         <v>416</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C80" t="s">
         <v>417</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E80"/>
-      <c r="F80" t="s">
+      <c r="F80" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G80"/>
@@ -7191,17 +7528,17 @@
       <c r="A81" t="s">
         <v>418</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C81" t="s">
         <v>419</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E81"/>
-      <c r="F81" t="s">
+      <c r="F81" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G81"/>
@@ -7210,17 +7547,17 @@
       <c r="A82" t="s">
         <v>420</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C82" t="s">
         <v>421</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E82"/>
-      <c r="F82" t="s">
+      <c r="F82" s="5" t="s">
         <v>240</v>
       </c>
       <c r="G82" t="b">
@@ -7231,17 +7568,17 @@
       <c r="A83" t="s">
         <v>422</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C83" t="s">
         <v>423</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E83"/>
-      <c r="F83" t="s">
+      <c r="F83" s="5" t="s">
         <v>424</v>
       </c>
       <c r="G83" t="b">
@@ -7252,17 +7589,17 @@
       <c r="A84" t="s">
         <v>425</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C84" t="s">
         <v>426</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E84"/>
-      <c r="F84" t="s">
+      <c r="F84" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G84"/>
@@ -7271,17 +7608,17 @@
       <c r="A85" t="s">
         <v>427</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C85" t="s">
         <v>428</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E85"/>
-      <c r="F85" t="s">
+      <c r="F85" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G85"/>
@@ -7290,17 +7627,17 @@
       <c r="A86" t="s">
         <v>429</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C86" t="s">
         <v>430</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E86"/>
-      <c r="F86" t="s">
+      <c r="F86" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G86"/>
@@ -7309,17 +7646,17 @@
       <c r="A87" t="s">
         <v>431</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C87" t="s">
         <v>432</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E87"/>
-      <c r="F87" t="s">
+      <c r="F87" s="5" t="s">
         <v>433</v>
       </c>
       <c r="G87" t="b">
@@ -7330,17 +7667,17 @@
       <c r="A88" t="s">
         <v>434</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>302</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E88"/>
-      <c r="F88" t="s">
+      <c r="F88" s="5" t="s">
         <v>433</v>
       </c>
       <c r="G88" t="b">
@@ -7351,17 +7688,17 @@
       <c r="A89" t="s">
         <v>435</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>436</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E89"/>
-      <c r="F89" t="s">
+      <c r="F89" s="5" t="s">
         <v>433</v>
       </c>
       <c r="G89"/>
@@ -7370,28 +7707,31 @@
       <c r="A90" t="s">
         <v>437</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>438</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E90"/>
-      <c r="F90" t="s">
+      <c r="F90" s="5" t="s">
         <v>384</v>
       </c>
       <c r="G90"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7434,17 +7774,17 @@
       <c r="A2" t="s">
         <v>439</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>440</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>441</v>
       </c>
       <c r="E2"/>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>279</v>
       </c>
       <c r="G2"/>
@@ -7453,17 +7793,17 @@
       <c r="A3" t="s">
         <v>442</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C3" t="s">
         <v>443</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>444</v>
       </c>
       <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>445</v>
       </c>
       <c r="G3"/>
@@ -7472,17 +7812,17 @@
       <c r="A4" t="s">
         <v>446</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C4" t="s">
         <v>447</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>448</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G4"/>
@@ -7491,15 +7831,15 @@
       <c r="A5" t="s">
         <v>449</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>450</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G5"/>
@@ -7508,15 +7848,15 @@
       <c r="A6" t="s">
         <v>451</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" s="6"/>
       <c r="C6" t="s">
         <v>452</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E6"/>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G6"/>
@@ -7525,15 +7865,15 @@
       <c r="A7" t="s">
         <v>453</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>454</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E7"/>
-      <c r="F7" t="s">
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G7"/>
@@ -7542,17 +7882,17 @@
       <c r="A8" t="s">
         <v>455</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C8" t="s">
         <v>456</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E8"/>
-      <c r="F8" t="s">
+      <c r="F8" s="6" t="s">
         <v>457</v>
       </c>
       <c r="G8"/>
@@ -7561,17 +7901,17 @@
       <c r="A9" t="s">
         <v>458</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C9" t="s">
         <v>459</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E9"/>
-      <c r="F9" t="s">
+      <c r="F9" s="6" t="s">
         <v>460</v>
       </c>
       <c r="G9"/>
@@ -7580,17 +7920,17 @@
       <c r="A10" t="s">
         <v>461</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C10" t="s">
         <v>462</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E10"/>
-      <c r="F10" t="s">
+      <c r="F10" s="6" t="s">
         <v>463</v>
       </c>
       <c r="G10"/>
@@ -7599,17 +7939,17 @@
       <c r="A11" t="s">
         <v>464</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C11" t="s">
         <v>465</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E11"/>
-      <c r="F11" t="s">
+      <c r="F11" s="6" t="s">
         <v>466</v>
       </c>
       <c r="G11"/>
@@ -7618,17 +7958,17 @@
       <c r="A12" t="s">
         <v>467</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C12" t="s">
         <v>468</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E12"/>
-      <c r="F12" t="s">
+      <c r="F12" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G12"/>
@@ -7637,17 +7977,17 @@
       <c r="A13" t="s">
         <v>469</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>470</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E13"/>
-      <c r="F13" t="s">
+      <c r="F13" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G13"/>
@@ -7656,17 +7996,17 @@
       <c r="A14" t="s">
         <v>471</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C14" t="s">
         <v>472</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E14"/>
-      <c r="F14" t="s">
+      <c r="F14" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G14"/>
@@ -7675,17 +8015,17 @@
       <c r="A15" t="s">
         <v>473</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C15" t="s">
         <v>474</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E15"/>
-      <c r="F15" t="s">
+      <c r="F15" s="6" t="s">
         <v>463</v>
       </c>
       <c r="G15"/>
@@ -7694,17 +8034,17 @@
       <c r="A16" t="s">
         <v>475</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C16" t="s">
         <v>476</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
-      <c r="F16" t="s">
+      <c r="F16" s="6" t="s">
         <v>463</v>
       </c>
       <c r="G16"/>
@@ -7713,17 +8053,17 @@
       <c r="A17" t="s">
         <v>477</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C17" t="s">
         <v>478</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E17"/>
-      <c r="F17" t="s">
+      <c r="F17" s="6" t="s">
         <v>463</v>
       </c>
       <c r="G17"/>
@@ -7732,17 +8072,17 @@
       <c r="A18" t="s">
         <v>479</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>480</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E18"/>
-      <c r="F18" t="s">
+      <c r="F18" s="6" t="s">
         <v>463</v>
       </c>
       <c r="G18"/>
@@ -7751,17 +8091,17 @@
       <c r="A19" t="s">
         <v>481</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>482</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E19"/>
-      <c r="F19" t="s">
+      <c r="F19" s="6" t="s">
         <v>463</v>
       </c>
       <c r="G19"/>
@@ -7770,17 +8110,17 @@
       <c r="A20" t="s">
         <v>483</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>484</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E20"/>
-      <c r="F20" t="s">
+      <c r="F20" s="6" t="s">
         <v>463</v>
       </c>
       <c r="G20"/>
@@ -7789,17 +8129,17 @@
       <c r="A21" t="s">
         <v>485</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C21" t="s">
         <v>486</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E21"/>
-      <c r="F21" t="s">
+      <c r="F21" s="6" t="s">
         <v>463</v>
       </c>
       <c r="G21"/>
@@ -7808,17 +8148,17 @@
       <c r="A22" t="s">
         <v>487</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C22" t="s">
         <v>488</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E22"/>
-      <c r="F22" t="s">
+      <c r="F22" s="6" t="s">
         <v>463</v>
       </c>
       <c r="G22"/>
@@ -7827,17 +8167,17 @@
       <c r="A23" t="s">
         <v>489</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>490</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E23"/>
-      <c r="F23" t="s">
+      <c r="F23" s="6" t="s">
         <v>463</v>
       </c>
       <c r="G23"/>
@@ -7846,17 +8186,17 @@
       <c r="A24" t="s">
         <v>491</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C24" t="s">
         <v>492</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="6" t="s">
         <v>493</v>
       </c>
       <c r="E24"/>
-      <c r="F24" t="s">
+      <c r="F24" s="6" t="s">
         <v>494</v>
       </c>
       <c r="G24"/>
@@ -7865,17 +8205,17 @@
       <c r="A25" t="s">
         <v>495</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C25" t="s">
         <v>496</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="6" t="s">
         <v>497</v>
       </c>
       <c r="E25"/>
-      <c r="F25" t="s">
+      <c r="F25" s="6" t="s">
         <v>279</v>
       </c>
       <c r="G25"/>
@@ -7884,17 +8224,17 @@
       <c r="A26" t="s">
         <v>498</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C26" t="s">
         <v>499</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>500</v>
       </c>
       <c r="E26"/>
-      <c r="F26" t="s">
+      <c r="F26" s="6" t="s">
         <v>501</v>
       </c>
       <c r="G26"/>
@@ -7903,17 +8243,17 @@
       <c r="A27" t="s">
         <v>502</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C27" t="s">
         <v>503</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="6" t="s">
         <v>504</v>
       </c>
       <c r="E27"/>
-      <c r="F27" t="s">
+      <c r="F27" s="6" t="s">
         <v>279</v>
       </c>
       <c r="G27"/>
@@ -7922,17 +8262,17 @@
       <c r="A28" t="s">
         <v>505</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C28" t="s">
         <v>506</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="6" t="s">
         <v>507</v>
       </c>
       <c r="E28"/>
-      <c r="F28" t="s">
+      <c r="F28" s="6" t="s">
         <v>508</v>
       </c>
       <c r="G28"/>
@@ -7941,17 +8281,17 @@
       <c r="A29" t="s">
         <v>509</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C29" t="s">
         <v>510</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>511</v>
       </c>
       <c r="E29"/>
-      <c r="F29" t="s">
+      <c r="F29" s="6" t="s">
         <v>279</v>
       </c>
       <c r="G29"/>
@@ -7960,17 +8300,17 @@
       <c r="A30" t="s">
         <v>512</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C30" t="s">
         <v>513</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="6" t="s">
         <v>514</v>
       </c>
       <c r="E30"/>
-      <c r="F30" t="s">
+      <c r="F30" s="6" t="s">
         <v>501</v>
       </c>
       <c r="G30"/>
@@ -7979,17 +8319,17 @@
       <c r="A31" t="s">
         <v>515</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>516</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6" t="s">
         <v>517</v>
       </c>
       <c r="E31"/>
-      <c r="F31" t="s">
+      <c r="F31" s="6" t="s">
         <v>501</v>
       </c>
       <c r="G31"/>
@@ -7998,17 +8338,17 @@
       <c r="A32" t="s">
         <v>518</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>519</v>
       </c>
       <c r="C32" t="s">
         <v>520</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>521</v>
       </c>
       <c r="E32"/>
-      <c r="F32" t="s">
+      <c r="F32" s="6" t="s">
         <v>522</v>
       </c>
       <c r="G32"/>
@@ -8017,17 +8357,17 @@
       <c r="A33" t="s">
         <v>523</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>524</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="6" t="s">
         <v>525</v>
       </c>
       <c r="E33"/>
-      <c r="F33" t="s">
+      <c r="F33" s="6" t="s">
         <v>522</v>
       </c>
       <c r="G33"/>
@@ -8036,17 +8376,17 @@
       <c r="A34" t="s">
         <v>526</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C34" t="s">
         <v>527</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6" t="s">
         <v>528</v>
       </c>
       <c r="E34"/>
-      <c r="F34" t="s">
+      <c r="F34" s="6" t="s">
         <v>522</v>
       </c>
       <c r="G34"/>
@@ -8055,17 +8395,17 @@
       <c r="A35" t="s">
         <v>529</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>530</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="6" t="s">
         <v>531</v>
       </c>
       <c r="E35"/>
-      <c r="F35" t="s">
+      <c r="F35" s="6" t="s">
         <v>522</v>
       </c>
       <c r="G35"/>
@@ -8074,17 +8414,17 @@
       <c r="A36" t="s">
         <v>532</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C36" t="s">
         <v>533</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="6" t="s">
         <v>534</v>
       </c>
       <c r="E36"/>
-      <c r="F36" t="s">
+      <c r="F36" s="6" t="s">
         <v>279</v>
       </c>
       <c r="G36"/>
@@ -8093,17 +8433,17 @@
       <c r="A37" t="s">
         <v>535</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C37" t="s">
         <v>536</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="6" t="s">
         <v>537</v>
       </c>
       <c r="E37"/>
-      <c r="F37" t="s">
+      <c r="F37" s="6" t="s">
         <v>240</v>
       </c>
       <c r="G37"/>
@@ -8112,17 +8452,17 @@
       <c r="A38" t="s">
         <v>538</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>539</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E38"/>
-      <c r="F38" t="s">
+      <c r="F38" s="6" t="s">
         <v>384</v>
       </c>
       <c r="G38"/>
@@ -8131,17 +8471,17 @@
       <c r="A39" t="s">
         <v>540</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>541</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E39"/>
-      <c r="F39" t="s">
+      <c r="F39" s="6" t="s">
         <v>384</v>
       </c>
       <c r="G39"/>
@@ -8150,28 +8490,31 @@
       <c r="A40" t="s">
         <v>542</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>543</v>
       </c>
       <c r="C40" t="s">
         <v>544</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E40"/>
-      <c r="F40" t="s">
+      <c r="F40" s="6" t="s">
         <v>384</v>
       </c>
       <c r="G40"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8214,19 +8557,19 @@
       <c r="A2" t="s">
         <v>545</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>546</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G2"/>
@@ -8235,19 +8578,19 @@
       <c r="A3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G3"/>
@@ -8256,17 +8599,17 @@
       <c r="A4" t="s">
         <v>185</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
@@ -8275,17 +8618,17 @@
       <c r="A5" t="s">
         <v>186</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5"/>
@@ -8294,17 +8637,17 @@
       <c r="A6" t="s">
         <v>187</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E6"/>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6"/>
@@ -8313,19 +8656,19 @@
       <c r="A7" t="s">
         <v>123</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C7" t="s">
         <v>547</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7"/>
@@ -8334,19 +8677,19 @@
       <c r="A8" t="s">
         <v>548</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>549</v>
       </c>
       <c r="C8" t="s">
         <v>550</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8"/>
@@ -8355,17 +8698,17 @@
       <c r="A9" t="s">
         <v>551</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>552</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E9"/>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9"/>
@@ -8374,17 +8717,17 @@
       <c r="A10" t="s">
         <v>553</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>554</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E10"/>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10"/>
@@ -8393,17 +8736,17 @@
       <c r="A11" t="s">
         <v>555</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>556</v>
       </c>
       <c r="C11" t="s">
         <v>557</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>558</v>
       </c>
       <c r="E11"/>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11"/>
@@ -8412,17 +8755,17 @@
       <c r="A12" t="s">
         <v>559</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>560</v>
       </c>
       <c r="C12" t="s">
         <v>561</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E12"/>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12"/>
@@ -8431,17 +8774,17 @@
       <c r="A13" t="s">
         <v>562</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>563</v>
       </c>
       <c r="C13" t="s">
         <v>564</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E13"/>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13"/>
@@ -8450,17 +8793,17 @@
       <c r="A14" t="s">
         <v>565</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>566</v>
       </c>
       <c r="C14" t="s">
         <v>567</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>568</v>
       </c>
       <c r="E14"/>
-      <c r="F14" t="s">
+      <c r="F14" s="7" t="s">
         <v>569</v>
       </c>
       <c r="G14"/>
@@ -8469,17 +8812,17 @@
       <c r="A15" t="s">
         <v>570</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>571</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E15"/>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
         <v>569</v>
       </c>
       <c r="G15"/>
@@ -8488,17 +8831,17 @@
       <c r="A16" t="s">
         <v>572</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>573</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>569</v>
       </c>
       <c r="G16"/>
@@ -8507,17 +8850,17 @@
       <c r="A17" t="s">
         <v>574</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C17" t="s">
         <v>575</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E17"/>
-      <c r="F17" t="s">
+      <c r="F17" s="7" t="s">
         <v>569</v>
       </c>
       <c r="G17"/>
@@ -8526,17 +8869,17 @@
       <c r="A18" t="s">
         <v>576</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>577</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E18"/>
-      <c r="F18" t="s">
+      <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18"/>
@@ -8545,17 +8888,17 @@
       <c r="A19" t="s">
         <v>578</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>579</v>
       </c>
       <c r="C19" t="s">
         <v>580</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>581</v>
       </c>
       <c r="E19"/>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19"/>
@@ -8564,17 +8907,17 @@
       <c r="A20" t="s">
         <v>582</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>549</v>
       </c>
       <c r="C20" t="s">
         <v>583</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E20"/>
-      <c r="F20" t="s">
+      <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20"/>
@@ -8583,28 +8926,31 @@
       <c r="A21" t="s">
         <v>584</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C21" t="s">
         <v>585</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E21"/>
-      <c r="F21" t="s">
+      <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8647,19 +8993,19 @@
       <c r="A2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C2" t="s">
         <v>586</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G2"/>
@@ -8668,17 +9014,17 @@
       <c r="A3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>111</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G3"/>
@@ -8687,19 +9033,19 @@
       <c r="A4" t="s">
         <v>587</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>588</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>589</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
@@ -8708,19 +9054,19 @@
       <c r="A5" t="s">
         <v>590</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>591</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G5"/>
@@ -8729,19 +9075,19 @@
       <c r="A6" t="s">
         <v>592</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>593</v>
       </c>
       <c r="C6" t="s">
         <v>594</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>595</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G6"/>
@@ -8750,17 +9096,17 @@
       <c r="A7" t="s">
         <v>596</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>597</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>598</v>
       </c>
       <c r="E7"/>
-      <c r="F7" t="s">
+      <c r="F7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G7"/>
@@ -8769,17 +9115,17 @@
       <c r="A8" t="s">
         <v>190</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C8" t="s">
         <v>191</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E8"/>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G8"/>
@@ -8788,17 +9134,17 @@
       <c r="A9" t="s">
         <v>185</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E9"/>
-      <c r="F9" t="s">
+      <c r="F9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G9"/>
@@ -8807,17 +9153,17 @@
       <c r="A10" t="s">
         <v>186</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E10"/>
-      <c r="F10" t="s">
+      <c r="F10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G10"/>
@@ -8826,28 +9172,31 @@
       <c r="A11" t="s">
         <v>187</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E11"/>
-      <c r="F11" t="s">
+      <c r="F11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G11"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8890,19 +9239,19 @@
       <c r="A2" t="s">
         <v>599</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>549</v>
       </c>
       <c r="C2" t="s">
         <v>600</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G2"/>
@@ -8911,17 +9260,17 @@
       <c r="A3" t="s">
         <v>601</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>602</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E3"/>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G3"/>
@@ -8930,17 +9279,17 @@
       <c r="A4" t="s">
         <v>603</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>604</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G4"/>
@@ -8949,19 +9298,19 @@
       <c r="A5" t="s">
         <v>605</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>606</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>607</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G5"/>
@@ -8970,19 +9319,19 @@
       <c r="A6" t="s">
         <v>545</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>129</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G6"/>
@@ -8991,19 +9340,19 @@
       <c r="A7" t="s">
         <v>130</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C7" t="s">
         <v>132</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G7"/>
@@ -9012,17 +9361,17 @@
       <c r="A8" t="s">
         <v>185</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E8"/>
-      <c r="F8" t="s">
+      <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G8"/>
@@ -9031,17 +9380,17 @@
       <c r="A9" t="s">
         <v>186</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E9"/>
-      <c r="F9" t="s">
+      <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G9"/>
@@ -9050,17 +9399,17 @@
       <c r="A10" t="s">
         <v>187</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E10"/>
-      <c r="F10" t="s">
+      <c r="F10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G10"/>
@@ -9069,19 +9418,19 @@
       <c r="A11" t="s">
         <v>608</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>609</v>
       </c>
       <c r="C11" t="s">
         <v>610</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G11"/>
@@ -9090,17 +9439,17 @@
       <c r="A12" t="s">
         <v>611</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>612</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12"/>
-      <c r="F12" t="s">
+      <c r="F12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G12"/>
@@ -9109,19 +9458,19 @@
       <c r="A13" t="s">
         <v>613</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C13" t="s">
         <v>614</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G13"/>
@@ -9130,17 +9479,17 @@
       <c r="A14" t="s">
         <v>615</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>616</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E14"/>
-      <c r="F14" t="s">
+      <c r="F14" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G14"/>
@@ -9149,17 +9498,17 @@
       <c r="A15" t="s">
         <v>617</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>618</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E15"/>
-      <c r="F15" t="s">
+      <c r="F15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G15"/>
@@ -9168,17 +9517,17 @@
       <c r="A16" t="s">
         <v>619</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>620</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E16"/>
-      <c r="F16" t="s">
+      <c r="F16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G16"/>
@@ -9187,17 +9536,17 @@
       <c r="A17" t="s">
         <v>621</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>622</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E17"/>
-      <c r="F17" t="s">
+      <c r="F17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G17"/>
@@ -9206,17 +9555,17 @@
       <c r="A18" t="s">
         <v>623</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>624</v>
       </c>
       <c r="C18" t="s">
         <v>625</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E18"/>
-      <c r="F18" t="s">
+      <c r="F18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G18"/>
@@ -9225,17 +9574,17 @@
       <c r="A19" t="s">
         <v>626</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>627</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E19"/>
-      <c r="F19" t="s">
+      <c r="F19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G19"/>
@@ -9244,17 +9593,17 @@
       <c r="A20" t="s">
         <v>628</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>629</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E20"/>
-      <c r="F20" t="s">
+      <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G20"/>
@@ -9263,17 +9612,17 @@
       <c r="A21" t="s">
         <v>630</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>631</v>
       </c>
       <c r="C21" t="s">
         <v>632</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E21"/>
-      <c r="F21" t="s">
+      <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G21"/>
@@ -9282,17 +9631,17 @@
       <c r="A22" t="s">
         <v>633</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="9" t="s">
         <v>634</v>
       </c>
       <c r="C22" t="s">
         <v>635</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E22"/>
-      <c r="F22" t="s">
+      <c r="F22" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G22"/>
@@ -9301,17 +9650,17 @@
       <c r="A23" t="s">
         <v>636</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>637</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E23"/>
-      <c r="F23" t="s">
+      <c r="F23" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G23"/>
@@ -9320,17 +9669,17 @@
       <c r="A24" t="s">
         <v>638</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
         <v>212</v>
       </c>
       <c r="C24" t="s">
         <v>639</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E24"/>
-      <c r="F24" t="s">
+      <c r="F24" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G24"/>
@@ -9339,22 +9688,25 @@
       <c r="A25" t="s">
         <v>640</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="9" t="s">
         <v>212</v>
       </c>
       <c r="C25" t="s">
         <v>641</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E25"/>
-      <c r="F25" t="s">
+      <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G25"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>